--- a/Textbooks, projects/Applied Math/labs/lab_6/var_4/lab_6_var_4.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_6/var_4/lab_6_var_4.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C7DA9B-D9FC-4460-ACE2-B6EAF2D9E89D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFAD8E0-718A-45F8-A55C-E68FC2604872}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,49 +11,15 @@
     <sheet name="мкр" sheetId="1" r:id="rId1"/>
     <sheet name="Эйлер" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">мкр!$B$5:$B$8</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">мкр!$A$11:$D$11</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">мкр!$A$9</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
-  </definedNames>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
   <si>
     <t>a</t>
   </si>
@@ -61,49 +27,85 @@
     <t>b</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>h</t>
   </si>
   <si>
-    <t>a1</t>
+    <t>p(x)</t>
   </si>
   <si>
-    <t>a2</t>
+    <t>q(x)</t>
   </si>
   <si>
-    <t>a3</t>
+    <t>f(x)</t>
   </si>
   <si>
-    <t>b1</t>
+    <t>ya</t>
   </si>
   <si>
-    <t>b2</t>
+    <t>yb</t>
   </si>
   <si>
-    <t>b3</t>
+    <t>x</t>
   </si>
   <si>
-    <t>Qk</t>
+    <t>x^x-1,2</t>
   </si>
   <si>
-    <t>Pk</t>
+    <t>i</t>
   </si>
   <si>
-    <t>Y2k</t>
+    <t>y</t>
   </si>
   <si>
-    <t>Y1k</t>
+    <t>h^2</t>
   </si>
   <si>
-    <t>Yk</t>
+    <t>2h</t>
   </si>
   <si>
-    <t>Xk</t>
+    <t>2h^2</t>
   </si>
   <si>
-    <t>Fk</t>
+    <t>1/h</t>
   </si>
   <si>
-    <t>n</t>
+    <t>1/2h</t>
+  </si>
+  <si>
+    <t>1/h^2</t>
+  </si>
+  <si>
+    <t>2/h^2</t>
+  </si>
+  <si>
+    <t>i=</t>
+  </si>
+  <si>
+    <t>y0</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y4</t>
+  </si>
+  <si>
+    <t>y5</t>
+  </si>
+  <si>
+    <t>f(x,y)=2x^2+xy+3y^2</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>начальное условие</t>
@@ -115,19 +117,10 @@
     <t>метод Эйлера</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y1</t>
-  </si>
-  <si>
     <t>исправленный метод Эйлера</t>
   </si>
   <si>
-    <t>y2</t>
+    <t>метод Рунге-Кутты</t>
   </si>
   <si>
     <t>k1</t>
@@ -136,34 +129,41 @@
     <t>k2</t>
   </si>
   <si>
-    <t>метод Рунге-Кутты</t>
-  </si>
-  <si>
-    <t>y3</t>
-  </si>
-  <si>
     <t>k3</t>
   </si>
   <si>
     <t>k4</t>
-  </si>
-  <si>
-    <t>f(x,y)=2x^2+xy+3y^2</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -175,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -183,21 +183,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -210,6 +250,367 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>f(x)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>мкр!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>мкр!$A$14:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>мкр!$B$14:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0563217193162373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7796939180738365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.7139461982108619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-75.754982614331183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-307.01738550409419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-622.48541014343982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C551-4FBD-82E7-F3D2152B4D7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="813116304"/>
+        <c:axId val="575872848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="813116304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575872848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="575872848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="813116304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -264,7 +665,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Эйлер!$C$11</c:f>
+              <c:f>[1]Эйлер!$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -287,7 +688,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Эйлер!$B$12:$B$22</c:f>
+              <c:f>[1]Эйлер!$B$12:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -329,7 +730,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Эйлер!$C$12:$C$22</c:f>
+              <c:f>[1]Эйлер!$C$12:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -372,7 +773,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AD32-4366-9253-E19D3AE8DCFF}"/>
+              <c16:uniqueId val="{00000000-2467-4A28-9659-217E7A4D7640}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -381,7 +782,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Эйлер!$E$11</c:f>
+              <c:f>[1]Эйлер!$E$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -404,7 +805,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Эйлер!$B$12:$B$22</c:f>
+              <c:f>[1]Эйлер!$B$12:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -446,7 +847,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Эйлер!$E$12:$E$22</c:f>
+              <c:f>[1]Эйлер!$E$12:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -489,7 +890,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AD32-4366-9253-E19D3AE8DCFF}"/>
+              <c16:uniqueId val="{00000001-2467-4A28-9659-217E7A4D7640}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -498,7 +899,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Эйлер!$I$11</c:f>
+              <c:f>[1]Эйлер!$I$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -521,7 +922,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Эйлер!$B$12:$B$22</c:f>
+              <c:f>[1]Эйлер!$B$12:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -563,7 +964,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Эйлер!$I$12:$I$22</c:f>
+              <c:f>[1]Эйлер!$I$12:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -606,7 +1007,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AD32-4366-9253-E19D3AE8DCFF}"/>
+              <c16:uniqueId val="{00000002-2467-4A28-9659-217E7A4D7640}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -821,7 +1222,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -884,7 +1285,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Эйлер!$C$35</c:f>
+              <c:f>[1]Эйлер!$C$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -907,7 +1308,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Эйлер!$B$36:$B$56</c:f>
+              <c:f>[1]Эйлер!$B$36:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -979,7 +1380,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Эйлер!$C$36:$C$56</c:f>
+              <c:f>[1]Эйлер!$C$36:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1052,7 +1453,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0C1F-48CA-A840-B740D93EF1A0}"/>
+              <c16:uniqueId val="{00000000-313B-47B6-8EB8-6954236091EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1061,7 +1462,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Эйлер!$E$35</c:f>
+              <c:f>[1]Эйлер!$E$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1084,7 +1485,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Эйлер!$B$36:$B$56</c:f>
+              <c:f>[1]Эйлер!$B$36:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1156,7 +1557,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Эйлер!$E$36:$E$56</c:f>
+              <c:f>[1]Эйлер!$E$36:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1229,7 +1630,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0C1F-48CA-A840-B740D93EF1A0}"/>
+              <c16:uniqueId val="{00000001-313B-47B6-8EB8-6954236091EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1238,7 +1639,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Эйлер!$I$35</c:f>
+              <c:f>[1]Эйлер!$I$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1261,7 +1662,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Эйлер!$B$36:$B$56</c:f>
+              <c:f>[1]Эйлер!$B$36:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1333,7 +1734,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Эйлер!$I$36:$I$56</c:f>
+              <c:f>[1]Эйлер!$I$36:$I$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1406,7 +1807,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0C1F-48CA-A840-B740D93EF1A0}"/>
+              <c16:uniqueId val="{00000002-313B-47B6-8EB8-6954236091EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1669,6 +2070,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2740,7 +3181,2887 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800604" cy="288733"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D50AC2-C032-4E1C-8F0F-B29252E5E2E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4552950" y="1109662"/>
+              <a:ext cx="800604" cy="288733"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>′</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>0</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>h</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D50AC2-C032-4E1C-8F0F-B29252E5E2E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4552950" y="1109662"/>
+              <a:ext cx="800604" cy="288733"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>′=(𝑦_1−𝑦_0)/ℎ</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1021242" cy="289823"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88A6DF5-3A61-485B-B377-570ECD7765B9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4476750" y="1581150"/>
+              <a:ext cx="1021242" cy="289823"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>′</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>h</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88A6DF5-3A61-485B-B377-570ECD7765B9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4476750" y="1581150"/>
+              <a:ext cx="1021242" cy="289823"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>′=(𝑦_(𝑖+1)−𝑦_(𝑖−1))/2ℎ</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1420517" cy="328295"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ADE52EF-DA06-4EE7-B261-B178FBBFA629}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4438650" y="2057400"/>
+              <a:ext cx="1420517" cy="328295"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>′′</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−2</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>h</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ADE52EF-DA06-4EE7-B261-B178FBBFA629}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4438650" y="2057400"/>
+              <a:ext cx="1420517" cy="328295"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>′′=(𝑦_(𝑖+1)−2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑦_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦_(𝑖−1))/ℎ^2 </a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>162506</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0386B2-D189-4AD8-9DC3-3FDAE6AFBAE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="9525"/>
+          <a:ext cx="4163006" cy="943107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4977901" cy="191078"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83535C20-8E60-48E5-99DB-C7608F0BFC11}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6200775" y="1138237"/>
+              <a:ext cx="4977901" cy="191078"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2,163+0,735</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑝</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2,163−0,735</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑞</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−4,325</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑓</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83535C20-8E60-48E5-99DB-C7608F0BFC11}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6200775" y="1138237"/>
+              <a:ext cx="4977901" cy="191078"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖+1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> (2,163+0,735𝑝(𝑥_𝑖 ))+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖−1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (2,163−0,735𝑝(𝑥_𝑖 ))+𝑦_𝑖 (𝑞(𝑥_𝑖 )−4,325)=𝑓(𝑥_𝑖)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2899191" cy="191078"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F56AEFAA-3508-42DC-9B35-3BCD0B9FF70E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6162675" y="1485900"/>
+              <a:ext cx="2899191" cy="191078"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑞</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−1,471</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+1,471</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑝</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:d>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑓</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F56AEFAA-3508-42DC-9B35-3BCD0B9FF70E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6162675" y="1485900"/>
+              <a:ext cx="2899191" cy="191078"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑦_0 (𝑞(𝑥_𝑖 )−1,471</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑝(𝑥_𝑖 )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1,471𝑝(𝑥_𝑖 )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=𝑓(𝑥_𝑖)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F9512FD-E793-4F5A-89CF-56A9C40FFD13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2757,14 +6078,16 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
+        <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{221D3B9A-56C9-4D70-9B3C-9595816E475D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2793,14 +6116,16 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
+        <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACCEC78F-DBDF-4182-954E-7C25AB2D6C80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EFAAC9B-F383-4990-9948-78FD22F2990B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2817,10 +6142,496 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="мкр"/>
+      <sheetName val="Эйлер"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>y1</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>y2</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v>y3</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>2</v>
+          </cell>
+          <cell r="C12">
+            <v>1.2</v>
+          </cell>
+          <cell r="E12">
+            <v>1.2</v>
+          </cell>
+          <cell r="I12">
+            <v>1.2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>2.1</v>
+          </cell>
+          <cell r="C13">
+            <v>2.6720000000000002</v>
+          </cell>
+          <cell r="E13">
+            <v>3.7284975999999999</v>
+          </cell>
+          <cell r="I13">
+            <v>4.4316626282303693</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="C14">
+            <v>6.2569952000000004</v>
+          </cell>
+          <cell r="E14">
+            <v>21.902769806519061</v>
+          </cell>
+          <cell r="I14">
+            <v>417.04871415465703</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>2.3000000000000003</v>
+          </cell>
+          <cell r="C15">
+            <v>20.346530823846912</v>
+          </cell>
+          <cell r="E15">
+            <v>4534.4556198510218</v>
+          </cell>
+          <cell r="I15">
+            <v>5.630188748293642E+29</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>2.4000000000000004</v>
+          </cell>
+          <cell r="C16">
+            <v>150.27862788305745</v>
+          </cell>
+          <cell r="E16">
+            <v>5717679975327.9443</v>
+          </cell>
+          <cell r="I16" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>2.5000000000000004</v>
+          </cell>
+          <cell r="C17">
+            <v>6962.5972980993274</v>
+          </cell>
+          <cell r="E17">
+            <v>1.4428232884285598E+49</v>
+          </cell>
+          <cell r="I17" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>2.6000000000000005</v>
+          </cell>
+          <cell r="C18">
+            <v>14552032.83727264</v>
+          </cell>
+          <cell r="E18">
+            <v>5.8504105405630345E+194</v>
+          </cell>
+          <cell r="I18" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>2.7000000000000006</v>
+          </cell>
+          <cell r="C19">
+            <v>63528516244681.086</v>
+          </cell>
+          <cell r="E19" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="I19" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>2.8000000000000007</v>
+          </cell>
+          <cell r="C20">
+            <v>1.2107617128752933E+27</v>
+          </cell>
+          <cell r="E20" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="I20" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>2.9000000000000008</v>
+          </cell>
+          <cell r="C21">
+            <v>4.3978317760941427E+53</v>
+          </cell>
+          <cell r="E21" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="I21" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>3.0000000000000009</v>
+          </cell>
+          <cell r="C22">
+            <v>5.8022772992470087E+106</v>
+          </cell>
+          <cell r="E22" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="I22" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35" t="str">
+            <v>y1</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>y2</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v>y3</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>2</v>
+          </cell>
+          <cell r="C36">
+            <v>1.2</v>
+          </cell>
+          <cell r="E36">
+            <v>1.2</v>
+          </cell>
+          <cell r="I36">
+            <v>1.2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>2.0499999999999998</v>
+          </cell>
+          <cell r="C37">
+            <v>1.9359999999999999</v>
+          </cell>
+          <cell r="E37">
+            <v>2.1584522000000002</v>
+          </cell>
+          <cell r="I37">
+            <v>2.1956756004791544</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>2.0999999999999996</v>
+          </cell>
+          <cell r="C38">
+            <v>3.1169044000000001</v>
+          </cell>
+          <cell r="E38">
+            <v>4.1509126694091911</v>
+          </cell>
+          <cell r="I38">
+            <v>4.4941062923508444</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>2.1499999999999995</v>
+          </cell>
+          <cell r="C39">
+            <v>5.3424433178109041</v>
+          </cell>
+          <cell r="E39">
+            <v>10.867874765817525</v>
+          </cell>
+          <cell r="I39">
+            <v>18.103427889173116</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>2.1999999999999993</v>
+          </cell>
+          <cell r="C40">
+            <v>10.660261065078934</v>
+          </cell>
+          <cell r="E40">
+            <v>90.916364537945469</v>
+          </cell>
+          <cell r="I40">
+            <v>427889.96848214621</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>2.2499999999999991</v>
+          </cell>
+          <cell r="C41">
+            <v>29.363064678583296</v>
+          </cell>
+          <cell r="E41">
+            <v>135716.97505710614</v>
+          </cell>
+          <cell r="I41">
+            <v>2.2505340207775279E+73</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>2.2999999999999989</v>
+          </cell>
+          <cell r="C42">
+            <v>162.50109455272383</v>
+          </cell>
+          <cell r="E42">
+            <v>5.7256913511482214E+17</v>
+          </cell>
+          <cell r="I42" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>2.3499999999999988</v>
+          </cell>
+          <cell r="C43">
+            <v>4142.7085800512814</v>
+          </cell>
+          <cell r="E43">
+            <v>1.8136584954781242E+68</v>
+          </cell>
+          <cell r="I43" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>2.3999999999999986</v>
+          </cell>
+          <cell r="C44">
+            <v>2578935.1859727828</v>
+          </cell>
+          <cell r="E44">
+            <v>1.8258531270905295E+270</v>
+          </cell>
+          <cell r="I44" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>2.4499999999999984</v>
+          </cell>
+          <cell r="C45">
+            <v>997638892425.25488</v>
+          </cell>
+          <cell r="E45" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="I45" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>2.4999999999999982</v>
+          </cell>
+          <cell r="C46">
+            <v>1.4929250395304326E+23</v>
+          </cell>
+          <cell r="E46" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="I46" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>2.549999999999998</v>
+          </cell>
+          <cell r="C47">
+            <v>3.343237760485416E+45</v>
+          </cell>
+          <cell r="E47" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="I47" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>2.5999999999999979</v>
+          </cell>
+          <cell r="C48">
+            <v>1.6765858084703311E+90</v>
+          </cell>
+          <cell r="E48" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="I48" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>2.6499999999999977</v>
+          </cell>
+          <cell r="C49">
+            <v>4.2164099597461712E+179</v>
+          </cell>
+          <cell r="E49" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="I49" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>2.6999999999999975</v>
+          </cell>
+          <cell r="C50" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="E50" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="I50" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>2.7499999999999973</v>
+          </cell>
+          <cell r="C51" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="E51" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="I51" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>2.7999999999999972</v>
+          </cell>
+          <cell r="C52" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="E52" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="I52" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>2.849999999999997</v>
+          </cell>
+          <cell r="C53" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="E53" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="I53" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>2.8999999999999968</v>
+          </cell>
+          <cell r="C54" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="E54" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="I54" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>2.9499999999999966</v>
+          </cell>
+          <cell r="C55" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="E55" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="I55" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>2.9999999999999964</v>
+          </cell>
+          <cell r="C56" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="E56" t="e">
+            <v>#NUM!</v>
+          </cell>
+          <cell r="I56" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2828,44 +6639,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2893,14 +6704,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2928,9 +6756,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2939,371 +6784,871 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>-2.4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
         <v>0.8</v>
       </c>
-      <c r="B2" s="1">
+      <c r="E2" s="1">
         <v>4.2</v>
-      </c>
-      <c r="C2" s="1">
-        <f>(B2-A2)/3</f>
-        <v>1.1333333333333335</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-1.1000000000000001</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
       </c>
       <c r="G2" s="1">
-        <v>-2.1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="I2" s="1">
+        <f>(E2-D2)/I2</f>
+        <v>0.68</v>
+      </c>
+      <c r="I2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
+      <c r="B5" s="1">
+        <f>D2</f>
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="1">
+        <f>A2</f>
+        <v>-2.4</v>
+      </c>
+      <c r="D5" s="1">
+        <f>$B$2</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E5" s="1">
+        <f>B5^B5-1.2</f>
+        <v>-0.36348835792698131</v>
+      </c>
+      <c r="H5" s="9">
+        <f>H2^2</f>
+        <v>0.46240000000000009</v>
+      </c>
+      <c r="I5" s="9">
+        <f>H2*2</f>
+        <v>1.36</v>
+      </c>
+      <c r="J5" s="9">
+        <f>H5*2</f>
+        <v>0.92480000000000018</v>
+      </c>
+      <c r="K5" s="9">
+        <f>1/H2</f>
+        <v>1.4705882352941175</v>
+      </c>
+      <c r="L5" s="9">
+        <f>1/I5</f>
+        <v>0.73529411764705876</v>
+      </c>
+      <c r="M5" s="9">
+        <f>1/H5</f>
+        <v>2.1626297577854667</v>
+      </c>
+      <c r="N5" s="9">
+        <f>2/H5</f>
+        <v>4.3252595155709335</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f>A5+1</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B5+$H$2</f>
+        <v>1.48</v>
+      </c>
+      <c r="C6" s="1">
+        <f>A2</f>
+        <v>-2.4</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:D10" si="0">$B$2</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E9" si="1">B6^B6-1.2</f>
+        <v>0.58643549319930188</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" ref="A7:A9" si="2">A6+1</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" ref="B7:B10" si="3">B6+$H$2</f>
+        <v>2.16</v>
+      </c>
+      <c r="C7" s="1">
+        <f>A2</f>
+        <v>-2.4</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0774010906719615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8400000000000003</v>
+      </c>
+      <c r="C8" s="1">
+        <f>A2</f>
+        <v>-2.4</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>18.183137909130494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5200000000000005</v>
+      </c>
+      <c r="C9" s="1">
+        <f>A2</f>
+        <v>-2.4</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>82.713179204147067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2</v>
+      </c>
+      <c r="C10" s="1">
+        <f>A2</f>
+        <v>-2.4</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E10" s="1">
+        <f>B10^B10-1.2</f>
+        <v>413.41691860129697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="L13">
+        <f>D5-K5*C5</f>
+        <v>5.8094117647058816</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13">
+        <f>K5*C5</f>
+        <v>-3.5294117647058818</v>
+      </c>
+      <c r="O13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13">
+        <f>E5</f>
+        <v>-0.36348835792698131</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f>A2</f>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f>D2</f>
         <v>0.8</v>
       </c>
-      <c r="B5">
-        <v>1.0770909904410824</v>
-      </c>
-      <c r="C5">
-        <f>(B5-B6)/$C$2</f>
-        <v>-1.7202644704538756</v>
+      <c r="B14" s="1">
+        <f t="array" ref="B14:B19">MMULT(MINVERSE(A23:F28),G23:G28)</f>
+        <v>4.0563217193162373</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f>A5+$C$2</f>
-        <v>1.9333333333333336</v>
-      </c>
-      <c r="B6">
-        <v>3.0267240569554752</v>
-      </c>
-      <c r="C6">
-        <f>(B7-B5)/2/$C$2</f>
-        <v>-0.4751872016651833</v>
-      </c>
-      <c r="D6">
-        <f>(B7-2*B6+B5)/$C$2^2</f>
-        <v>-3.8743264802101036</v>
-      </c>
-      <c r="E6">
-        <f>1/A6</f>
-        <v>0.51724137931034475</v>
-      </c>
-      <c r="F6">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f>A14+$H$2</f>
+        <v>1.48</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6.7796939180738365</v>
+      </c>
+      <c r="L15">
+        <f>M5-L5*C6</f>
+        <v>3.9273356401384074</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="10">
+        <f>D6-N5</f>
+        <v>-2.0452595155709337</v>
+      </c>
+      <c r="O15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15">
+        <f>M5+L5*C6</f>
+        <v>0.39792387543252583</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15">
+        <f>E6</f>
+        <v>0.58643549319930188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" ref="A16:A18" si="4">A15+$H$2</f>
+        <v>2.16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-3.7139461982108619</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="7">
         <v>2</v>
       </c>
-      <c r="G6">
-        <f>A6</f>
-        <v>1.9333333333333336</v>
-      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f>A6+$C$2</f>
-        <v>3.0666666666666673</v>
-      </c>
-      <c r="B7">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="4"/>
+        <v>2.8400000000000003</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-75.754982614331183</v>
+      </c>
+      <c r="L17">
+        <f>M5-L5*C7</f>
+        <v>3.9273356401384074</v>
+      </c>
+      <c r="M17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="10">
+        <f>D7-N5</f>
+        <v>-2.0452595155709337</v>
+      </c>
+      <c r="O17" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17">
+        <f>M5+L5*C7</f>
+        <v>0.39792387543252583</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17">
+        <f>E7</f>
+        <v>4.0774010906719615</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5200000000000005</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-307.01738550409419</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f>A18+$H$2</f>
+        <v>4.2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-622.48541014343982</v>
+      </c>
+      <c r="L19" s="10">
+        <f>M5-L5*C8</f>
+        <v>3.9273356401384074</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="10">
+        <f>D8-N5</f>
+        <v>-2.0452595155709337</v>
+      </c>
+      <c r="O19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19">
+        <f>M5+L5*C8</f>
+        <v>0.39792387543252583</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R19">
+        <f>E8</f>
+        <v>18.183137909130494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f>M5-L5*C9</f>
+        <v>3.9273356401384074</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="10">
+        <f>D9-N5</f>
+        <v>-2.0452595155709337</v>
+      </c>
+      <c r="O21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21">
+        <f>M5+L5*C9</f>
+        <v>0.39792387543252583</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21">
+        <f>E9</f>
+        <v>82.713179204147067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <f>L13</f>
+        <v>5.8094117647058816</v>
+      </c>
+      <c r="B23" s="6">
+        <f>N13</f>
+        <v>-3.5294117647058818</v>
+      </c>
+      <c r="C23" s="6">
         <v>0</v>
       </c>
-      <c r="C7">
-        <f>(B8-B6)/2/$C$2</f>
-        <v>-1.3353194368921213</v>
-      </c>
-      <c r="D7">
-        <f>(B8-2*B7+B6)/$C$2^2</f>
-        <v>2.3564460651037429</v>
-      </c>
-      <c r="E7">
-        <f>1/A7</f>
-        <v>0.32608695652173908</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <f>A7</f>
-        <v>3.0666666666666673</v>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" ref="G23:G28" si="5">E5</f>
+        <v>-0.36348835792698131</v>
+      </c>
+      <c r="L23">
+        <f>D10-K5*C10</f>
+        <v>5.8094117647058816</v>
+      </c>
+      <c r="M23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23">
+        <f>K5*C10</f>
+        <v>-3.5294117647058818</v>
+      </c>
+      <c r="O23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23">
+        <f>E10</f>
+        <v>413.41691860129697</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" ref="A8" si="0">A7+$C$2</f>
-        <v>4.2000000000000011</v>
-      </c>
-      <c r="B8">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <f>L15</f>
+        <v>3.9273356401384074</v>
+      </c>
+      <c r="B24" s="9">
+        <f>N15</f>
+        <v>-2.0452595155709337</v>
+      </c>
+      <c r="C24" s="6">
+        <f>P15</f>
+        <v>0.39792387543252583</v>
+      </c>
+      <c r="D24" s="6">
         <v>0</v>
       </c>
-      <c r="C8">
-        <f>(B8-B7)/$C$2</f>
+      <c r="E24" s="6">
         <v>0</v>
       </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="5"/>
+        <v>0.58643549319930188</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f>B5</f>
-        <v>1.0770909904410824</v>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>0</v>
+      </c>
+      <c r="B25" s="6">
+        <f>L17</f>
+        <v>3.9273356401384074</v>
+      </c>
+      <c r="C25" s="9">
+        <f>N17</f>
+        <v>-2.0452595155709337</v>
+      </c>
+      <c r="D25" s="6">
+        <f>P17</f>
+        <v>0.39792387543252583</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="5"/>
+        <v>4.0774010906719615</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f>$D$2*B5+$E$2*C5-$F$2</f>
-        <v>1.6543371561539288E-8</v>
-      </c>
-      <c r="B11">
-        <f>D6+E6*C6+F6*B6-G6</f>
-        <v>1.8167475905883634E-6</v>
-      </c>
-      <c r="C11">
-        <f>D7+E7*C7+F7*B7-G7</f>
-        <v>-1.1456508527233988</v>
-      </c>
-      <c r="D11">
-        <f>$G$2*B8+$H$2*C8-I2</f>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>0</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9">
+        <f>L19</f>
+        <v>3.9273356401384074</v>
+      </c>
+      <c r="D26" s="9">
+        <f>N19</f>
+        <v>-2.0452595155709337</v>
+      </c>
+      <c r="E26" s="6">
+        <f>P19</f>
+        <v>0.39792387543252583</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="5"/>
+        <v>18.183137909130494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>0</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <f>L21</f>
+        <v>3.9273356401384074</v>
+      </c>
+      <c r="E27" s="9">
+        <f>N21</f>
+        <v>-2.0452595155709337</v>
+      </c>
+      <c r="F27" s="6">
+        <f>P21</f>
+        <v>0.39792387543252583</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="5"/>
+        <v>82.713179204147067</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>0</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <f>L23</f>
+        <v>5.8094117647058816</v>
+      </c>
+      <c r="F28" s="6">
+        <f>N23</f>
+        <v>-3.5294117647058818</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="5"/>
+        <v>413.41691860129697</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4020D604-9240-476D-B77F-2B0CDA08D635}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3315,1601 +7660,1601 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>10</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="6">
         <f>(B4-A4)/C4</f>
         <v>0.1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="6">
         <v>1.2</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
+      <c r="A11" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="1"/>
+      <c r="J11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="6">
         <v>0</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <f>A4</f>
         <v>2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6">
         <f>A8</f>
         <v>1.2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="6">
         <f>A8</f>
         <v>1.2</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="6">
         <f>2*B12^2+B12*E12+3*E12^2</f>
         <v>14.72</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="6">
         <f>2*(B12+$D$4)^2+(B12+$D$4)*(E12+$D$4*F12)+3*(E12+$D$4*F12)^2</f>
         <v>35.849952000000002</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="6">
         <f>A8</f>
         <v>1.2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="6">
         <f>2*B12^2+B12*I12+3*I12^2</f>
         <v>14.72</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="6">
         <f>2*(B12+$D$4/2)^2+(B12+$D$4/2)*(I12+$D$4/2*J12)+3*(I12+$D$4/2*J12)^2</f>
         <v>23.618088</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="6">
         <f>2*(B12+$D$4/2)^2+(B12+$D$4/2)*(I12+$D$4/2*K12)+3*(I12+$D$4/2*K12)^2</f>
         <v>30.291971305818077</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="6">
         <f>2*(B12+$D$4)^2+(B12+$D$4)*(I12+$D$4*L12)+3*(I12+$D$4*L12)^2</f>
         <v>71.359639082185993</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="6">
         <v>1</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <f>B12+$D$4</f>
         <v>2.1</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6">
         <f>C12+$D$4*(2*B12^2+B12*C12+3*C12^2)</f>
         <v>2.6720000000000002</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="6">
         <f>E12+$D$4/2*(F12+G12)</f>
         <v>3.7284975999999999</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="6">
         <f t="shared" ref="F13:F21" si="0">2*B13^2+B13*E13+3*E13^2</f>
         <v>58.354928019617276</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="6">
         <f t="shared" ref="G13:G21" si="1">2*(B13+$D$4)^2+(B13+$D$4)*(E13+$D$4*F13)+3*(E13+$D$4*F13)^2</f>
         <v>305.13051611076395</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="6">
         <f>I12+$D$4/6*(J12+2*K12+2*L12+M12)</f>
         <v>4.4316626282303693</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="6">
         <f t="shared" ref="J13:J21" si="2">2*B13^2+B13*I13+3*I13^2</f>
         <v>77.045392470644884</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="6">
         <f t="shared" ref="K13:K21" si="3">2*(B13+$D$4/2)^2+(B13+$D$4/2)*(I13+$D$4/2*J13)+3*(I13+$D$4/2*J13)^2</f>
         <v>232.92605499666806</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="6">
         <f t="shared" ref="L13:L21" si="4">2*(B13+$D$4/2)^2+(B13+$D$4/2)*(I13+$D$4/2*K13)+3*(I13+$D$4/2*K13)^2</f>
         <v>819.31553765748924</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="6">
         <f t="shared" ref="M13:M21" si="5">2*(B13+$D$4)^2+(B13+$D$4)*(I13+$D$4*L13)+3*(I13+$D$4*L13)^2</f>
         <v>22575.49451380664</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="6">
         <v>2</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <f t="shared" ref="B14:B22" si="6">B13+$D$4</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="6">
         <f t="shared" ref="C14:C22" si="7">C13+$D$4*(2*B13^2+B13*C13+3*C13^2)</f>
         <v>6.2569952000000004</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="6">
         <f t="shared" ref="E14:E22" si="8">E13+$D$4/2*(F13+G13)</f>
         <v>21.902769806519061</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>1497.0600691664308</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="6">
         <f t="shared" si="1"/>
         <v>88753.99693172361</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="6">
         <f t="shared" ref="I14:I22" si="9">I13+$D$4/6*(J13+2*K13+2*L13+M13)</f>
         <v>417.04871415465703</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="6">
         <f t="shared" si="2"/>
         <v>522716.07710529875</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="6">
         <f t="shared" si="3"/>
         <v>2115221692.7632794</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="6">
         <f t="shared" si="4"/>
         <v>3.3556485955153972E+16</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="6">
         <f t="shared" si="5"/>
         <v>3.3781132489761786E+31</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="6">
         <v>3</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <f t="shared" si="6"/>
         <v>2.3000000000000003</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="6">
         <f t="shared" si="7"/>
         <v>20.346530823846912</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="6">
         <f t="shared" si="8"/>
         <v>4534.4556198510218</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="6">
         <f t="shared" si="0"/>
         <v>61694303.1331212</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>114353537721566.63</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="6">
         <f t="shared" si="9"/>
         <v>5.630188748293642E+29</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="6">
         <f t="shared" si="2"/>
         <v>9.509707602423699E+59</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="6">
         <f t="shared" si="3"/>
         <v>6.7825904012696342E+117</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="6">
         <f t="shared" si="4"/>
         <v>3.4502649413546233E+233</v>
       </c>
-      <c r="M15" s="1" t="e">
+      <c r="M15" s="6" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="6">
         <v>4</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="6">
         <f t="shared" si="6"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="6">
         <f t="shared" si="7"/>
         <v>150.27862788305745</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="6">
         <f t="shared" si="8"/>
         <v>5717679975327.9443</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="6">
         <f t="shared" si="0"/>
         <v>9.807559290081222E+25</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="6">
         <f t="shared" si="1"/>
         <v>2.8856465768571195E+50</v>
       </c>
-      <c r="I16" s="1" t="e">
+      <c r="I16" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
-      <c r="J16" s="1" t="e">
+      <c r="J16" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="K16" s="1" t="e">
+      <c r="K16" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="L16" s="1" t="e">
+      <c r="L16" s="6" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="M16" s="1" t="e">
+      <c r="M16" s="6" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="N16" s="1"/>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="6">
         <v>5</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <f>B16+$D$4</f>
         <v>2.5000000000000004</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="6">
         <f t="shared" si="7"/>
         <v>6962.5972980993274</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="6">
         <f t="shared" si="8"/>
         <v>1.4428232884285598E+49</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="6">
         <f t="shared" si="0"/>
         <v>6.2452171248954096E+98</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="6">
         <f t="shared" si="1"/>
         <v>1.1700821081126067E+196</v>
       </c>
-      <c r="I17" s="1" t="e">
+      <c r="I17" s="6" t="e">
         <f>I16+$D$4/6*(J16+2*K16+2*L16+M16)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J17" s="1" t="e">
+      <c r="J17" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="K17" s="1" t="e">
+      <c r="K17" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="L17" s="1" t="e">
+      <c r="L17" s="6" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="M17" s="1" t="e">
+      <c r="M17" s="6" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="6">
         <v>6</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <f t="shared" si="6"/>
         <v>2.6000000000000005</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="6">
         <f t="shared" si="7"/>
         <v>14552032.83727264</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="6">
         <f t="shared" si="8"/>
         <v>5.8504105405630345E+194</v>
       </c>
-      <c r="F18" s="1" t="e">
+      <c r="F18" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="G18" s="1" t="e">
+      <c r="G18" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="I18" s="1" t="e">
+      <c r="I18" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
-      <c r="J18" s="1" t="e">
+      <c r="J18" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="K18" s="1" t="e">
+      <c r="K18" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="L18" s="1" t="e">
+      <c r="L18" s="6" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="M18" s="1" t="e">
+      <c r="M18" s="6" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="6">
         <v>7</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <f t="shared" si="6"/>
         <v>2.7000000000000006</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="6">
         <f t="shared" si="7"/>
         <v>63528516244681.086</v>
       </c>
-      <c r="E19" s="1" t="e">
+      <c r="E19" s="6" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-      <c r="F19" s="1" t="e">
+      <c r="F19" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="G19" s="1" t="e">
+      <c r="G19" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="I19" s="1" t="e">
+      <c r="I19" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
-      <c r="J19" s="1" t="e">
+      <c r="J19" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="K19" s="1" t="e">
+      <c r="K19" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="L19" s="1" t="e">
+      <c r="L19" s="6" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="M19" s="1" t="e">
+      <c r="M19" s="6" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="6">
         <v>8</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <f t="shared" si="6"/>
         <v>2.8000000000000007</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="6">
         <f t="shared" si="7"/>
         <v>1.2107617128752933E+27</v>
       </c>
-      <c r="E20" s="1" t="e">
+      <c r="E20" s="6" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-      <c r="F20" s="1" t="e">
+      <c r="F20" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="G20" s="1" t="e">
+      <c r="G20" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="I20" s="1" t="e">
+      <c r="I20" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
-      <c r="J20" s="1" t="e">
+      <c r="J20" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="K20" s="1" t="e">
+      <c r="K20" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="L20" s="1" t="e">
+      <c r="L20" s="6" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="M20" s="1" t="e">
+      <c r="M20" s="6" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="6">
         <v>9</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <f t="shared" si="6"/>
         <v>2.9000000000000008</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="6">
         <f t="shared" si="7"/>
         <v>4.3978317760941427E+53</v>
       </c>
-      <c r="E21" s="1" t="e">
+      <c r="E21" s="6" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-      <c r="F21" s="1" t="e">
+      <c r="F21" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="G21" s="1" t="e">
+      <c r="G21" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="I21" s="1" t="e">
+      <c r="I21" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
-      <c r="J21" s="1" t="e">
+      <c r="J21" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="K21" s="1" t="e">
+      <c r="K21" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="L21" s="1" t="e">
+      <c r="L21" s="6" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="M21" s="1" t="e">
+      <c r="M21" s="6" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="6">
         <v>10</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <f t="shared" si="6"/>
         <v>3.0000000000000009</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="6">
         <f t="shared" si="7"/>
         <v>5.8022772992470087E+106</v>
       </c>
-      <c r="E22" s="1" t="e">
+      <c r="E22" s="6" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="I22" s="1" t="e">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="I22" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C29" s="6" t="s">
         <v>2</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C30" s="1">
+      <c r="C30" s="6">
         <v>20</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="6">
         <f>(B4-A4)/C30</f>
         <v>0.05</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="A34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I34" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>20</v>
+      <c r="A35" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>30</v>
+      <c r="J35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="6">
         <v>0</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="6">
         <f>A4</f>
         <v>2</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="6">
         <f>A8</f>
         <v>1.2</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="6">
         <f>A8</f>
         <v>1.2</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="6">
         <f>2*B36^2+B36*E36+3*E36^2</f>
         <v>14.72</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="6">
         <f>2*(B36+$D$30)^2+(B36+$D$30)*(E36+$D$30*F36)+3*(E36+$D$30*F36)^2</f>
         <v>23.618088</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="6">
         <f>A8</f>
         <v>1.2</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="6">
         <f>2*B36^2+B36*I36+3*I36^2</f>
         <v>14.72</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="6">
         <f>2*(B36+$D$30/2)^2+(B36+$D$30/2)*(I36+$D$30/2*J36)+3*(I36+$D$30/2*J36)^2</f>
         <v>18.752321999999999</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36" s="6">
         <f>2*(B36+$D$30/2)^2+(B36+$D$30/2)*(I36+$D$30/2*K36)+3*(I36+$D$30/2*K36)^2</f>
         <v>19.93534722448441</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36" s="6">
         <f>2*(B36+$D$30)^2+(B36+$D$30)*(I36+$D$30*L36)+3*(I36+$D$30*L36)^2</f>
         <v>27.38573360852973</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="6">
         <v>1</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="6">
         <f>B36+$D$30</f>
         <v>2.0499999999999998</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="6">
         <f>C36+$D$30*(2*B36^2+B36*C36+3*C36^2)</f>
         <v>1.9359999999999999</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="6">
         <f>E36+$D$30/2*(F36+G36)</f>
         <v>2.1584522000000002</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="6">
         <f>2*B37^2+B37*E37+3*E37^2</f>
         <v>26.806574709054523</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="6">
         <f t="shared" ref="G37:G55" si="10">2*(B37+$D$30)^2+(B37+$D$30)*(E37+$D$30*F37)+3*(E37+$D$30*F37)^2</f>
         <v>52.891844067313087</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="6">
         <f>I36+$D$30/6*(J36+2*K36+2*L36+M36)</f>
         <v>2.1956756004791544</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="6">
         <f t="shared" ref="J37:J55" si="11">2*B37^2+B37*I37+3*I37^2</f>
         <v>27.369109008600752</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="6">
         <f t="shared" ref="K37:K55" si="12">2*(B37+$D$30/2)^2+(B37+$D$30/2)*(I37+$D$30/2*J37)+3*(I37+$D$30/2*J37)^2</f>
         <v>39.468578896848491</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37" s="6">
         <f t="shared" ref="L37:L55" si="13">2*(B37+$D$30/2)^2+(B37+$D$30/2)*(I37+$D$30/2*K37)+3*(I37+$D$30/2*K37)^2</f>
         <v>45.597529129552669</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="6">
         <f t="shared" ref="M37:M55" si="14">2*(B37+$D$30)^2+(B37+$D$30)*(I37+$D$30*L37)+3*(I37+$D$30*L37)^2</f>
         <v>78.310357963199664</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="6">
         <v>2</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="6">
         <f t="shared" ref="B38:B56" si="15">B37+$D$30</f>
         <v>2.0999999999999996</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="6">
         <f t="shared" ref="C38:C56" si="16">C37+$D$30*(2*B37^2+B37*C37+3*C37^2)</f>
         <v>3.1169044000000001</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="6">
         <f>E37+$D$30/2*(F37+G37)</f>
         <v>4.1509126694091911</v>
       </c>
-      <c r="F38" s="1">
-        <f t="shared" ref="F37:F55" si="17">2*B38^2+B38*E38+3*E38^2</f>
+      <c r="F38" s="6">
+        <f t="shared" ref="F38:F55" si="17">2*B38^2+B38*E38+3*E38^2</f>
         <v>69.227144572944511</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="6">
         <f t="shared" si="10"/>
         <v>199.45133928338882</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="6">
         <f t="shared" ref="I38:I56" si="18">I37+$D$30/6*(J37+2*K37+2*L37+M37)</f>
         <v>4.4941062923508444</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="6">
         <f>2*B38^2+B38*I38+3*I38^2</f>
         <v>78.848597314779127</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="6">
         <f t="shared" si="12"/>
         <v>148.17119323944644</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="6">
         <f t="shared" si="13"/>
         <v>228.09342559406548</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" s="6">
         <f t="shared" si="14"/>
         <v>801.74075663686961</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="6">
         <v>3</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="6">
         <f t="shared" si="15"/>
         <v>2.1499999999999995</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="6">
         <f t="shared" si="16"/>
         <v>5.3424433178109041</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="6">
         <f>E38+$D$30/2*(F38+G38)</f>
         <v>10.867874765817525</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="6">
         <f t="shared" si="17"/>
         <v>386.94303652298765</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="6">
         <f t="shared" si="10"/>
         <v>2814.9965543621297</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="6">
         <f t="shared" si="18"/>
         <v>18.103427889173116</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="6">
         <f t="shared" si="11"/>
         <v>1031.3696739771951</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="6">
         <f t="shared" si="12"/>
         <v>5883.2995969355279</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39" s="6">
         <f t="shared" si="13"/>
         <v>82227.902951977099</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39" s="6">
         <f t="shared" si="14"/>
         <v>51167370.031739041</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40" s="6">
         <v>4</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="6">
         <f t="shared" si="15"/>
         <v>2.1999999999999993</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="6">
         <f t="shared" si="16"/>
         <v>10.660261065078934</v>
       </c>
-      <c r="E40" s="1">
-        <f t="shared" ref="E38:E56" si="19">E39+$D$30/2*(F39+G39)</f>
+      <c r="E40" s="6">
+        <f t="shared" ref="E40:E56" si="19">E39+$D$30/2*(F39+G39)</f>
         <v>90.916364537945469</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="6">
         <f t="shared" si="17"/>
         <v>25007.052024373246</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="6">
         <f t="shared" si="10"/>
         <v>5400035.2956783548</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="6">
         <f t="shared" si="18"/>
         <v>427889.96848214621</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="6">
         <f t="shared" si="11"/>
         <v>549270416750.56683</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="6">
         <f t="shared" si="12"/>
         <v>5.6571898727003554E+20</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40" s="6">
         <f t="shared" si="13"/>
         <v>6.0007119854597625E+38</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40" s="6">
         <f t="shared" si="14"/>
         <v>2.7006408249330336E+75</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41" s="6">
         <v>5</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="6">
         <f t="shared" si="15"/>
         <v>2.2499999999999991</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="6">
         <f t="shared" si="16"/>
         <v>29.363064678583296</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="6">
         <f t="shared" si="19"/>
         <v>135716.97505710614</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="6">
         <f>2*B41^2+B41*E41+3*E41^2</f>
         <v>55257597329.2724</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="6">
         <f t="shared" si="10"/>
         <v>2.2902765349329859E+19</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="6">
         <f t="shared" si="18"/>
         <v>2.2505340207775279E+73</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="6">
         <f t="shared" si="11"/>
         <v>1.5194710136031199E+147</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="6">
         <f t="shared" si="12"/>
         <v>4.3289853022126742E+291</v>
       </c>
-      <c r="L41" s="1" t="e">
+      <c r="L41" s="6" t="e">
         <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="M41" s="1" t="e">
+      <c r="M41" s="6" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42" s="6">
         <v>6</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="6">
         <f t="shared" si="15"/>
         <v>2.2999999999999989</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="6">
         <f t="shared" si="16"/>
         <v>162.50109455272383</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="6">
         <f t="shared" si="19"/>
         <v>5.7256913511482214E+17</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="6">
         <f t="shared" si="17"/>
         <v>9.8350624345840635E+35</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="6">
         <f t="shared" si="10"/>
         <v>7.2546339819124964E+69</v>
       </c>
-      <c r="I42" s="1" t="e">
+      <c r="I42" s="6" t="e">
         <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
-      <c r="J42" s="1" t="e">
+      <c r="J42" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="K42" s="1" t="e">
+      <c r="K42" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#NUM!</v>
       </c>
-      <c r="L42" s="1" t="e">
+      <c r="L42" s="6" t="e">
         <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="M42" s="1" t="e">
+      <c r="M42" s="6" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43" s="6">
         <v>7</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="6">
         <f t="shared" si="15"/>
         <v>2.3499999999999988</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="6">
         <f t="shared" si="16"/>
         <v>4142.7085800512814</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="6">
         <f t="shared" si="19"/>
         <v>1.8136584954781242E+68</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="6">
         <f t="shared" si="17"/>
         <v>9.8680714146599198E+136</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="6">
         <f t="shared" si="10"/>
         <v>7.3034125083621175E+271</v>
       </c>
-      <c r="I43" s="1" t="e">
+      <c r="I43" s="6" t="e">
         <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
-      <c r="J43" s="1" t="e">
+      <c r="J43" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="K43" s="1" t="e">
+      <c r="K43" s="6" t="e">
         <f>2*(B43+$D$30/2)^2+(B43+$D$30/2)*(I43+$D$30/2*J43)+3*(I43+$D$30/2*J43)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="L43" s="1" t="e">
+      <c r="L43" s="6" t="e">
         <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="M43" s="1" t="e">
+      <c r="M43" s="6" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44" s="6">
         <v>8</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="6">
         <f t="shared" si="15"/>
         <v>2.3999999999999986</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="6">
         <f t="shared" si="16"/>
         <v>2578935.1859727828</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="6">
         <f t="shared" si="19"/>
         <v>1.8258531270905295E+270</v>
       </c>
-      <c r="F44" s="1" t="e">
+      <c r="F44" s="6" t="e">
         <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
-      <c r="G44" s="1" t="e">
+      <c r="G44" s="6" t="e">
         <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
-      <c r="I44" s="1" t="e">
+      <c r="I44" s="6" t="e">
         <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
-      <c r="J44" s="1" t="e">
+      <c r="J44" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="K44" s="1" t="e">
+      <c r="K44" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#NUM!</v>
       </c>
-      <c r="L44" s="1" t="e">
+      <c r="L44" s="6" t="e">
         <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="M44" s="1" t="e">
+      <c r="M44" s="6" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45" s="6">
         <v>9</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="6">
         <f t="shared" si="15"/>
         <v>2.4499999999999984</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="6">
         <f t="shared" si="16"/>
         <v>997638892425.25488</v>
       </c>
-      <c r="E45" s="1" t="e">
+      <c r="E45" s="6" t="e">
         <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
-      <c r="F45" s="1" t="e">
+      <c r="F45" s="6" t="e">
         <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
-      <c r="G45" s="1" t="e">
+      <c r="G45" s="6" t="e">
         <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
-      <c r="I45" s="1" t="e">
+      <c r="I45" s="6" t="e">
         <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
-      <c r="J45" s="1" t="e">
+      <c r="J45" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="K45" s="1" t="e">
+      <c r="K45" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#NUM!</v>
       </c>
-      <c r="L45" s="1" t="e">
+      <c r="L45" s="6" t="e">
         <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="M45" s="1" t="e">
+      <c r="M45" s="6" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46" s="6">
         <v>10</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="6">
         <f t="shared" si="15"/>
         <v>2.4999999999999982</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="6">
         <f t="shared" si="16"/>
         <v>1.4929250395304326E+23</v>
       </c>
-      <c r="E46" s="1" t="e">
+      <c r="E46" s="6" t="e">
         <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
-      <c r="F46" s="1" t="e">
+      <c r="F46" s="6" t="e">
         <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
-      <c r="G46" s="1" t="e">
+      <c r="G46" s="6" t="e">
         <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
-      <c r="I46" s="1" t="e">
+      <c r="I46" s="6" t="e">
         <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
-      <c r="J46" s="1" t="e">
+      <c r="J46" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="K46" s="1" t="e">
+      <c r="K46" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#NUM!</v>
       </c>
-      <c r="L46" s="1" t="e">
+      <c r="L46" s="6" t="e">
         <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="M46" s="1" t="e">
+      <c r="M46" s="6" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47" s="6">
         <v>11</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="6">
         <f t="shared" si="15"/>
         <v>2.549999999999998</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="6">
         <f t="shared" si="16"/>
         <v>3.343237760485416E+45</v>
       </c>
-      <c r="E47" s="1" t="e">
+      <c r="E47" s="6" t="e">
         <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
-      <c r="F47" s="1" t="e">
+      <c r="F47" s="6" t="e">
         <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
-      <c r="G47" s="1" t="e">
+      <c r="G47" s="6" t="e">
         <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
-      <c r="I47" s="1" t="e">
+      <c r="I47" s="6" t="e">
         <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
-      <c r="J47" s="1" t="e">
+      <c r="J47" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="K47" s="1" t="e">
+      <c r="K47" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#NUM!</v>
       </c>
-      <c r="L47" s="1" t="e">
+      <c r="L47" s="6" t="e">
         <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="M47" s="1" t="e">
+      <c r="M47" s="6" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="A48" s="6">
         <v>12</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="6">
         <f t="shared" si="15"/>
         <v>2.5999999999999979</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="6">
         <f t="shared" si="16"/>
         <v>1.6765858084703311E+90</v>
       </c>
-      <c r="E48" s="1" t="e">
+      <c r="E48" s="6" t="e">
         <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
-      <c r="F48" s="1" t="e">
+      <c r="F48" s="6" t="e">
         <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
-      <c r="G48" s="1" t="e">
+      <c r="G48" s="6" t="e">
         <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
-      <c r="I48" s="1" t="e">
+      <c r="I48" s="6" t="e">
         <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
-      <c r="J48" s="1" t="e">
+      <c r="J48" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="K48" s="1" t="e">
+      <c r="K48" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#NUM!</v>
       </c>
-      <c r="L48" s="1" t="e">
+      <c r="L48" s="6" t="e">
         <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="M48" s="1" t="e">
+      <c r="M48" s="6" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="A49" s="6">
         <v>13</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="6">
         <f t="shared" si="15"/>
         <v>2.6499999999999977</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="6">
         <f t="shared" si="16"/>
         <v>4.2164099597461712E+179</v>
       </c>
-      <c r="E49" s="1" t="e">
+      <c r="E49" s="6" t="e">
         <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
-      <c r="F49" s="1" t="e">
+      <c r="F49" s="6" t="e">
         <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
-      <c r="G49" s="1" t="e">
+      <c r="G49" s="6" t="e">
         <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
-      <c r="I49" s="1" t="e">
+      <c r="I49" s="6" t="e">
         <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
-      <c r="J49" s="1" t="e">
+      <c r="J49" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="K49" s="1" t="e">
+      <c r="K49" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#NUM!</v>
       </c>
-      <c r="L49" s="1" t="e">
+      <c r="L49" s="6" t="e">
         <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="M49" s="1" t="e">
+      <c r="M49" s="6" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="A50" s="6">
         <v>14</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="6">
         <f t="shared" si="15"/>
         <v>2.6999999999999975</v>
       </c>
-      <c r="C50" s="1" t="e">
+      <c r="C50" s="6" t="e">
         <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
-      <c r="E50" s="1" t="e">
+      <c r="E50" s="6" t="e">
         <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
-      <c r="F50" s="1" t="e">
+      <c r="F50" s="6" t="e">
         <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
-      <c r="G50" s="1" t="e">
+      <c r="G50" s="6" t="e">
         <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
-      <c r="I50" s="1" t="e">
+      <c r="I50" s="6" t="e">
         <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
-      <c r="J50" s="1" t="e">
+      <c r="J50" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="K50" s="1" t="e">
+      <c r="K50" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#NUM!</v>
       </c>
-      <c r="L50" s="1" t="e">
+      <c r="L50" s="6" t="e">
         <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="M50" s="1" t="e">
+      <c r="M50" s="6" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="A51" s="6">
         <v>15</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="6">
         <f t="shared" si="15"/>
         <v>2.7499999999999973</v>
       </c>
-      <c r="C51" s="1" t="e">
+      <c r="C51" s="6" t="e">
         <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
-      <c r="E51" s="1" t="e">
+      <c r="E51" s="6" t="e">
         <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
-      <c r="F51" s="1" t="e">
+      <c r="F51" s="6" t="e">
         <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
-      <c r="G51" s="1" t="e">
+      <c r="G51" s="6" t="e">
         <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
-      <c r="I51" s="1" t="e">
+      <c r="I51" s="6" t="e">
         <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
-      <c r="J51" s="1" t="e">
+      <c r="J51" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="K51" s="1" t="e">
+      <c r="K51" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#NUM!</v>
       </c>
-      <c r="L51" s="1" t="e">
+      <c r="L51" s="6" t="e">
         <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="M51" s="1" t="e">
+      <c r="M51" s="6" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="A52" s="6">
         <v>16</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="6">
         <f t="shared" si="15"/>
         <v>2.7999999999999972</v>
       </c>
-      <c r="C52" s="1" t="e">
+      <c r="C52" s="6" t="e">
         <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
-      <c r="E52" s="1" t="e">
+      <c r="E52" s="6" t="e">
         <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
-      <c r="F52" s="1" t="e">
+      <c r="F52" s="6" t="e">
         <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
-      <c r="G52" s="1" t="e">
+      <c r="G52" s="6" t="e">
         <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
-      <c r="I52" s="1" t="e">
+      <c r="I52" s="6" t="e">
         <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
-      <c r="J52" s="1" t="e">
+      <c r="J52" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="K52" s="1" t="e">
+      <c r="K52" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#NUM!</v>
       </c>
-      <c r="L52" s="1" t="e">
+      <c r="L52" s="6" t="e">
         <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="M52" s="1" t="e">
+      <c r="M52" s="6" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="A53" s="6">
         <v>17</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="6">
         <f t="shared" si="15"/>
         <v>2.849999999999997</v>
       </c>
-      <c r="C53" s="1" t="e">
+      <c r="C53" s="6" t="e">
         <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
-      <c r="E53" s="1" t="e">
+      <c r="E53" s="6" t="e">
         <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
-      <c r="F53" s="1" t="e">
+      <c r="F53" s="6" t="e">
         <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
-      <c r="G53" s="1" t="e">
+      <c r="G53" s="6" t="e">
         <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
-      <c r="I53" s="1" t="e">
+      <c r="I53" s="6" t="e">
         <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
-      <c r="J53" s="1" t="e">
+      <c r="J53" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="K53" s="1" t="e">
+      <c r="K53" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#NUM!</v>
       </c>
-      <c r="L53" s="1" t="e">
+      <c r="L53" s="6" t="e">
         <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="M53" s="1" t="e">
+      <c r="M53" s="6" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="A54" s="6">
         <v>18</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="6">
         <f t="shared" si="15"/>
         <v>2.8999999999999968</v>
       </c>
-      <c r="C54" s="1" t="e">
+      <c r="C54" s="6" t="e">
         <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
-      <c r="E54" s="1" t="e">
+      <c r="E54" s="6" t="e">
         <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
-      <c r="F54" s="1" t="e">
+      <c r="F54" s="6" t="e">
         <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
-      <c r="G54" s="1" t="e">
+      <c r="G54" s="6" t="e">
         <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
-      <c r="I54" s="1" t="e">
+      <c r="I54" s="6" t="e">
         <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
-      <c r="J54" s="1" t="e">
+      <c r="J54" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="K54" s="1" t="e">
+      <c r="K54" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#NUM!</v>
       </c>
-      <c r="L54" s="1" t="e">
+      <c r="L54" s="6" t="e">
         <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="M54" s="1" t="e">
+      <c r="M54" s="6" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="A55" s="6">
         <v>19</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="6">
         <f t="shared" si="15"/>
         <v>2.9499999999999966</v>
       </c>
-      <c r="C55" s="1" t="e">
+      <c r="C55" s="6" t="e">
         <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
-      <c r="E55" s="1" t="e">
+      <c r="E55" s="6" t="e">
         <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
-      <c r="F55" s="1" t="e">
+      <c r="F55" s="6" t="e">
         <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
-      <c r="G55" s="1" t="e">
+      <c r="G55" s="6" t="e">
         <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
-      <c r="I55" s="1" t="e">
+      <c r="I55" s="6" t="e">
         <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
-      <c r="J55" s="1" t="e">
+      <c r="J55" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="K55" s="1" t="e">
+      <c r="K55" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#NUM!</v>
       </c>
-      <c r="L55" s="1" t="e">
+      <c r="L55" s="6" t="e">
         <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="M55" s="1" t="e">
+      <c r="M55" s="6" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="A56" s="6">
         <v>20</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="6">
         <f t="shared" si="15"/>
         <v>2.9999999999999964</v>
       </c>
-      <c r="C56" s="1" t="e">
+      <c r="C56" s="6" t="e">
         <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
-      <c r="E56" s="1" t="e">
+      <c r="E56" s="6" t="e">
         <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
-      <c r="I56" s="1" t="e">
+      <c r="I56" s="6" t="e">
         <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>

--- a/Textbooks, projects/Applied Math/labs/lab_6/var_4/lab_6_var_4.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_6/var_4/lab_6_var_4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFAD8E0-718A-45F8-A55C-E68FC2604872}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3370EFC1-8336-47D7-8F32-77B5125E0815}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,9 +11,6 @@
     <sheet name="мкр" sheetId="1" r:id="rId1"/>
     <sheet name="Эйлер" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
@@ -665,7 +662,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Эйлер!$C$11</c:f>
+              <c:f>Эйлер!$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -688,7 +685,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]Эйлер!$B$12:$B$22</c:f>
+              <c:f>Эйлер!$B$12:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -730,7 +727,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Эйлер!$C$12:$C$22</c:f>
+              <c:f>Эйлер!$C$12:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -782,7 +779,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Эйлер!$E$11</c:f>
+              <c:f>Эйлер!$E$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -805,7 +802,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]Эйлер!$B$12:$B$22</c:f>
+              <c:f>Эйлер!$B$12:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -847,7 +844,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Эйлер!$E$12:$E$22</c:f>
+              <c:f>Эйлер!$E$12:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -899,7 +896,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Эйлер!$I$11</c:f>
+              <c:f>Эйлер!$I$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -922,7 +919,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]Эйлер!$B$12:$B$22</c:f>
+              <c:f>Эйлер!$B$12:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -964,7 +961,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Эйлер!$I$12:$I$22</c:f>
+              <c:f>Эйлер!$I$12:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1285,7 +1282,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Эйлер!$C$35</c:f>
+              <c:f>Эйлер!$C$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1308,7 +1305,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]Эйлер!$B$36:$B$56</c:f>
+              <c:f>Эйлер!$B$36:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1380,7 +1377,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Эйлер!$C$36:$C$56</c:f>
+              <c:f>Эйлер!$C$36:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1462,7 +1459,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Эйлер!$E$35</c:f>
+              <c:f>Эйлер!$E$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1485,7 +1482,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]Эйлер!$B$36:$B$56</c:f>
+              <c:f>Эйлер!$B$36:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1557,7 +1554,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Эйлер!$E$36:$E$56</c:f>
+              <c:f>Эйлер!$E$36:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1639,7 +1636,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Эйлер!$I$35</c:f>
+              <c:f>Эйлер!$I$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1662,7 +1659,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]Эйлер!$B$36:$B$56</c:f>
+              <c:f>Эйлер!$B$36:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1734,7 +1731,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Эйлер!$I$36:$I$56</c:f>
+              <c:f>Эйлер!$I$36:$I$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -6142,492 +6139,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="мкр"/>
-      <sheetName val="Эйлер"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="11">
-          <cell r="C11" t="str">
-            <v>y1</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>y2</v>
-          </cell>
-          <cell r="I11" t="str">
-            <v>y3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>2</v>
-          </cell>
-          <cell r="C12">
-            <v>1.2</v>
-          </cell>
-          <cell r="E12">
-            <v>1.2</v>
-          </cell>
-          <cell r="I12">
-            <v>1.2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>2.1</v>
-          </cell>
-          <cell r="C13">
-            <v>2.6720000000000002</v>
-          </cell>
-          <cell r="E13">
-            <v>3.7284975999999999</v>
-          </cell>
-          <cell r="I13">
-            <v>4.4316626282303693</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>2.2000000000000002</v>
-          </cell>
-          <cell r="C14">
-            <v>6.2569952000000004</v>
-          </cell>
-          <cell r="E14">
-            <v>21.902769806519061</v>
-          </cell>
-          <cell r="I14">
-            <v>417.04871415465703</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>2.3000000000000003</v>
-          </cell>
-          <cell r="C15">
-            <v>20.346530823846912</v>
-          </cell>
-          <cell r="E15">
-            <v>4534.4556198510218</v>
-          </cell>
-          <cell r="I15">
-            <v>5.630188748293642E+29</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>2.4000000000000004</v>
-          </cell>
-          <cell r="C16">
-            <v>150.27862788305745</v>
-          </cell>
-          <cell r="E16">
-            <v>5717679975327.9443</v>
-          </cell>
-          <cell r="I16" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>2.5000000000000004</v>
-          </cell>
-          <cell r="C17">
-            <v>6962.5972980993274</v>
-          </cell>
-          <cell r="E17">
-            <v>1.4428232884285598E+49</v>
-          </cell>
-          <cell r="I17" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>2.6000000000000005</v>
-          </cell>
-          <cell r="C18">
-            <v>14552032.83727264</v>
-          </cell>
-          <cell r="E18">
-            <v>5.8504105405630345E+194</v>
-          </cell>
-          <cell r="I18" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>2.7000000000000006</v>
-          </cell>
-          <cell r="C19">
-            <v>63528516244681.086</v>
-          </cell>
-          <cell r="E19" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I19" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>2.8000000000000007</v>
-          </cell>
-          <cell r="C20">
-            <v>1.2107617128752933E+27</v>
-          </cell>
-          <cell r="E20" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I20" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>2.9000000000000008</v>
-          </cell>
-          <cell r="C21">
-            <v>4.3978317760941427E+53</v>
-          </cell>
-          <cell r="E21" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I21" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>3.0000000000000009</v>
-          </cell>
-          <cell r="C22">
-            <v>5.8022772992470087E+106</v>
-          </cell>
-          <cell r="E22" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I22" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35" t="str">
-            <v>y1</v>
-          </cell>
-          <cell r="E35" t="str">
-            <v>y2</v>
-          </cell>
-          <cell r="I35" t="str">
-            <v>y3</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>2</v>
-          </cell>
-          <cell r="C36">
-            <v>1.2</v>
-          </cell>
-          <cell r="E36">
-            <v>1.2</v>
-          </cell>
-          <cell r="I36">
-            <v>1.2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>2.0499999999999998</v>
-          </cell>
-          <cell r="C37">
-            <v>1.9359999999999999</v>
-          </cell>
-          <cell r="E37">
-            <v>2.1584522000000002</v>
-          </cell>
-          <cell r="I37">
-            <v>2.1956756004791544</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>2.0999999999999996</v>
-          </cell>
-          <cell r="C38">
-            <v>3.1169044000000001</v>
-          </cell>
-          <cell r="E38">
-            <v>4.1509126694091911</v>
-          </cell>
-          <cell r="I38">
-            <v>4.4941062923508444</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>2.1499999999999995</v>
-          </cell>
-          <cell r="C39">
-            <v>5.3424433178109041</v>
-          </cell>
-          <cell r="E39">
-            <v>10.867874765817525</v>
-          </cell>
-          <cell r="I39">
-            <v>18.103427889173116</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>2.1999999999999993</v>
-          </cell>
-          <cell r="C40">
-            <v>10.660261065078934</v>
-          </cell>
-          <cell r="E40">
-            <v>90.916364537945469</v>
-          </cell>
-          <cell r="I40">
-            <v>427889.96848214621</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>2.2499999999999991</v>
-          </cell>
-          <cell r="C41">
-            <v>29.363064678583296</v>
-          </cell>
-          <cell r="E41">
-            <v>135716.97505710614</v>
-          </cell>
-          <cell r="I41">
-            <v>2.2505340207775279E+73</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>2.2999999999999989</v>
-          </cell>
-          <cell r="C42">
-            <v>162.50109455272383</v>
-          </cell>
-          <cell r="E42">
-            <v>5.7256913511482214E+17</v>
-          </cell>
-          <cell r="I42" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>2.3499999999999988</v>
-          </cell>
-          <cell r="C43">
-            <v>4142.7085800512814</v>
-          </cell>
-          <cell r="E43">
-            <v>1.8136584954781242E+68</v>
-          </cell>
-          <cell r="I43" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>2.3999999999999986</v>
-          </cell>
-          <cell r="C44">
-            <v>2578935.1859727828</v>
-          </cell>
-          <cell r="E44">
-            <v>1.8258531270905295E+270</v>
-          </cell>
-          <cell r="I44" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>2.4499999999999984</v>
-          </cell>
-          <cell r="C45">
-            <v>997638892425.25488</v>
-          </cell>
-          <cell r="E45" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I45" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>2.4999999999999982</v>
-          </cell>
-          <cell r="C46">
-            <v>1.4929250395304326E+23</v>
-          </cell>
-          <cell r="E46" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I46" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>2.549999999999998</v>
-          </cell>
-          <cell r="C47">
-            <v>3.343237760485416E+45</v>
-          </cell>
-          <cell r="E47" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I47" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>2.5999999999999979</v>
-          </cell>
-          <cell r="C48">
-            <v>1.6765858084703311E+90</v>
-          </cell>
-          <cell r="E48" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I48" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>2.6499999999999977</v>
-          </cell>
-          <cell r="C49">
-            <v>4.2164099597461712E+179</v>
-          </cell>
-          <cell r="E49" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I49" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>2.6999999999999975</v>
-          </cell>
-          <cell r="C50" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="E50" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I50" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>2.7499999999999973</v>
-          </cell>
-          <cell r="C51" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="E51" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I51" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>2.7999999999999972</v>
-          </cell>
-          <cell r="C52" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="E52" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I52" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>2.849999999999997</v>
-          </cell>
-          <cell r="C53" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="E53" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I53" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>2.8999999999999968</v>
-          </cell>
-          <cell r="C54" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="E54" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I54" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>2.9499999999999966</v>
-          </cell>
-          <cell r="C55" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="E55" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I55" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>2.9999999999999964</v>
-          </cell>
-          <cell r="C56" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="E56" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="I56" t="e">
-            <v>#NUM!</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -6952,7 +6463,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
